--- a/Benjamin Graham Growth Valuation.xlsx
+++ b/Benjamin Graham Growth Valuation.xlsx
@@ -1,31 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osbert/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66534406-7DF5-FF43-8FBF-C383A784DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jan Fredrik</author>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="O15" authorId="0">
+    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="1">
+    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Benjamin Grahams Growth Formula</t>
   </si>
@@ -159,9 +176,6 @@
     <t>CAGR</t>
   </si>
   <si>
-    <t>Copyright 2017. The Warren Buffett Spreadsheet</t>
-  </si>
-  <si>
     <t>Yellow= manual input</t>
   </si>
   <si>
@@ -190,22 +204,16 @@
   </si>
   <si>
     <t>Benjamin Grahams Growth Valuation</t>
-  </si>
-  <si>
-    <t>A spreadsheet that lets you analyze the price and quality of stocks in a fast and simple way</t>
-  </si>
-  <si>
-    <t>Download my full Excel stock valuation spreadsheet that includes 8 valuation models in one spreadsheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,27 +296,11 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -491,7 +483,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -512,30 +504,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -547,14 +535,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,14 +550,7 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -578,7 +558,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,32 +590,29 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -910,510 +887,494 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A4 A3"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="0.28515625" customWidth="1"/>
+    <col min="1" max="1" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="0.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="5" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="B8" s="26">
         <v>43075</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="21">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.1201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0.11392249585457226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1.73</v>
+      </c>
+      <c r="C15" s="19">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>4</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>5</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>6</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>7</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>8</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>9</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>10</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>0.1201</v>
-      </c>
-      <c r="C16" s="31">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="C16" s="27">
         <v>0.1507</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="27">
         <v>0.11720000000000001</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <v>0.16020000000000001</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="27">
         <v>0.1812</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>0.2051</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="27">
         <v>0.21350000000000002</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <v>0.24429999999999999</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="27">
         <v>0.2278</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <v>0.20829999999999999</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="27">
         <v>0.23219999999999999</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="28">
         <f>MEDIAN(B16:L16)</f>
-        <v>0.2051</v>
-      </c>
-      <c r="N16" s="33">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="N16" s="29">
         <f>IFERROR(IF(O16&lt;&gt;"",O16,M16),"")</f>
         <v>0.16</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="20">
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="34">
-        <v>0.11392249585457226</v>
-      </c>
-      <c r="C17" s="34">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="36">
+        <v>19151</v>
+      </c>
+      <c r="C17" s="30">
         <v>0.12993878686700056</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="30">
         <v>0.13363501378773951</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="30">
         <v>0.16386678455643972</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="30">
         <v>0.16832847573758755</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="30">
         <v>0.18842588167829494</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="30">
         <v>0.19979055684560398</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="30">
         <v>0.21594130398532599</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="30">
         <v>0.21876862421491772</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="30">
         <v>0.21227621483375958</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="30">
         <v>0.21843687374749499</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="31">
         <f>MEDIAN(B17:L17)</f>
-        <v>0.18842588167829494</v>
-      </c>
-      <c r="N17" s="36">
+        <v>0.19979055684560398</v>
+      </c>
+      <c r="N17" s="32">
         <f>IFERROR(IF(O17&lt;&gt;"",O17,M17),"")</f>
         <v>0.17</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="21">
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N18" s="17" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="37">
+        <v>798</v>
+      </c>
+      <c r="N18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>24</v>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="37">
-        <v>1.73</v>
-      </c>
-      <c r="C19" s="37">
+        <v>20958</v>
+      </c>
+      <c r="C19" s="33">
         <v>2.27</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="33">
         <v>1.87</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="33">
         <v>2.77</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="33">
         <v>3.36</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="33">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="33">
         <v>4.71</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="33">
         <v>5.75</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="33">
         <v>5.49</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="33">
         <v>5.07</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="33">
         <v>5.65</v>
       </c>
-      <c r="M19" s="38">
-        <f>(L19/B19)^(1/(10-1))-1</f>
+      <c r="M19" s="34">
+        <f>(L19/B15)^(1/(10-1))-1</f>
         <v>0.14054223374633557</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="35">
         <f>IFERROR(IF(O19&lt;&gt;"",O19,M19),"")</f>
         <v>0.12</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="40">
-        <v>19151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="41">
-        <v>798</v>
-      </c>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="41">
-        <v>20958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B20" s="38">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B21" s="39">
         <v>117</v>
       </c>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="44">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="40">
         <v>0.3</v>
       </c>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="M22" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B28" s="6">
         <f>IFERROR(MEDIAN(N16),"")</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7">
-        <f>B21</f>
+      <c r="B29" s="7">
+        <f>B17</f>
         <v>19151</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7">
+        <f>IFERROR((B28*B29),"")</f>
+        <v>3064.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B18</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9">
+        <f>IFERROR((B30/B31),"")</f>
+        <v>3.8397994987468671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6">
+        <f>AVERAGE(B17:L17)</f>
+        <v>1741.168128046932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="7">
+        <f>B19</f>
+        <v>20958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="7">
-        <f>IFERROR((B32*B33),"")</f>
-        <v>3064.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="7">
-        <f>B22</f>
-        <v>798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="7">
+        <f>IFERROR((B34*B35),"")</f>
+        <v>36491401.627607599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
-        <f>IFERROR((B34/B35),"")</f>
-        <v>3.8397994987468671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <f>IFERROR((B36/B31),"")</f>
+        <v>45728.573468179951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="6">
-        <f>AVERAGE(B17:L17)</f>
-        <v>0.17848463746443063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7">
-        <f>B23</f>
-        <v>20958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7">
-        <f>IFERROR((B38*B39),"")</f>
-        <v>3740.6810319795372</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="9">
-        <f>IFERROR((B40/B35),"")</f>
-        <v>4.6875702155132046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="10">
-        <f>IFERROR(AVERAGE(B36,B41),"")</f>
-        <v>4.2636848571300359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="B38" s="10">
+        <f>IFERROR(AVERAGE(B32,B37),"")</f>
+        <v>22866.206633839349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="12">
-        <f>B24*100</f>
+      <c r="B39" s="10">
+        <f>B20*100</f>
         <v>2.9499999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B40" s="9">
         <f>IFERROR((N19*100),"")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="10">
-        <f>B25</f>
+      <c r="B41" s="10">
+        <f>B21</f>
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="27">
-        <f>IFERROR((B42*(7+1.5*B44*0.75)*4.4/B43),"")</f>
-        <v>130.36758444512856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="B42" s="23">
+        <f>IFERROR((B38*(7+1.5*B40*0.75)*4.4/B39),"")</f>
+        <v>699163.33504146081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="46">
+        <f>IFERROR(1-(B21/B42),"")</f>
+        <v>0.99983265712869074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="52">
-        <f>IFERROR(1-(B25/B46),"")</f>
-        <v>0.10253764002780108</v>
-      </c>
-      <c r="C48" s="51"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="B45" s="47">
+        <f>(((B42/B21)^(1/10))-1)</f>
+        <v>1.3858288087212989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="53">
-        <f>(((B46/B25)^(1/10))-1)</f>
-        <v>1.0877140419923936E-2</v>
-      </c>
-      <c r="C49" s="28"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="54">
-        <f>IFERROR(B46*(1-B$26),"")</f>
-        <v>91.25730911158999</v>
-      </c>
+      <c r="B46" s="48">
+        <f>IFERROR(B42*(1-B$22),"")</f>
+        <v>489414.33452902251</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" tooltip="http://finance.yahoo.com/bonds/composite_bond_rates"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A3:A4" r:id="rId3" display="Check out my full Excel stock valuation spreadsheet that includes 8 valuation models in one spreadsheet"/>
+    <hyperlink ref="A20" r:id="rId1" tooltip="http://finance.yahoo.com/bonds/composite_bond_rates" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>